--- a/liting/每天进步一点点.xlsx
+++ b/liting/每天进步一点点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日常记录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <t>同心日服务器：</t>
@@ -1500,6 +1500,163 @@
         <charset val="134"/>
       </rPr>
       <t>农历的今年十月一国庆节：简聪妹</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个字段：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       var json = [];
+//      //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">插入数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>//      json.push(msg);//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>msg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">格式的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>//      //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">转为字符串
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>//      var str = JSON.stringify(json);</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1987,9 +2144,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2012,6 +2169,11 @@
     <row r="2" spans="1:3" ht="21.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.95" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/liting/每天进步一点点.xlsx
+++ b/liting/每天进步一点点.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bak\liting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="日常记录" sheetId="1" r:id="rId1"/>
@@ -20,122 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <r>
-      <t>同心日服务器：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>115.28.7.11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>：用户名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>密码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TXR_server_2014</t>
-    </r>
-  </si>
-  <si>
     <t>61.140.137.146</t>
-  </si>
-  <si>
-    <r>
-      <t>ftp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>服务器：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>115.28.7.11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>用户名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>txr.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>密码是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cmw1984122</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1052,237 +942,310 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>:https://github.com/creary/bak/trunk :sourceforget:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>:https://svn.code.sf.net/p/litingbak/liting</t>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是块级元素所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独占一行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所有的元素到不会和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是块级元素所有的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>独占一行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中所有的元素到不会和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>winISo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以把文件打包成镜像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>iso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>winISo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以把文件打包成镜像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>iso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式的</t>
+      <t>3.20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张春阳阳历四月十九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李小风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:4.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴历生日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:5.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>3.20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张春阳阳历四月十九</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
+      <t>javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中数字相加会默认是字符串的相加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>1+1=11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会出现这种结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -1294,369 +1257,463 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>李小风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:4.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阴历生日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阳历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:5.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
+      <t>如果要当成数字要使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>parseInt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来转型</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>javascript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中数字相加会默认是字符串的相加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>1+1=11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会出现这种结果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果要当成数字要使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>parseInt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来转型</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农历的今年十月一国庆节：简聪妹</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农历的今年十月一国庆节：简聪妹</t>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个字段：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       var json = [];
+//      //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">插入数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>//      json.push(msg);//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>msg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">格式的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>//      //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">转为字符串
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>//      var str = JSON.stringify(json);</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>js</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>push</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一个字段：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       var json = [];
-//      //</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">插入数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>//      json.push(msg);//</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>假如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>msg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>json</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">格式的数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>//      //</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">转为字符串
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>//      var str = JSON.stringify(json);</t>
+      <t>ftp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>115.28.7.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txr.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cmw1984122</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同心日服务器：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>115.28.7.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：用户名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TXR_server_2014</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:https://github.com/creary/bak/trunk :sourceforget:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:https://svn.code.sf.net/p/litingbak/liting  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>1152695512@qq.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>woshinige123</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1664,7 +1721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1771,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,11 +1850,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1806,6 +1860,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1852,7 +1914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1884,9 +1946,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1918,6 +1981,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2093,46 +2157,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="33.625" style="6"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="22.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="33" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" ht="33" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
+    <row r="3" spans="1:2" ht="33" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="33" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2143,10 +2206,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2157,23 +2220,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21.95" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.95" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,31 +2261,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2250,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2261,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2275,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.95" customHeight="1">

--- a/liting/每天进步一点点.xlsx
+++ b/liting/每天进步一点点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="日常记录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DIV-CSS" sheetId="4" r:id="rId4"/>
     <sheet name="javascript" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -249,232 +249,6 @@
   </si>
   <si>
     <r>
-      <t>javascript</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>的重要应用：引用（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>reference</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>）闭包（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>closure</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>）作用域（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>scope</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>）上下文（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>context</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>extjs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ext.get().dom;.dom</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>是把他转换为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dom</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>对象这样就可以用操作</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dom</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>的方式操作他了</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">前台格式化时间
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>var tdote=new Date(jsonData["doDate"]);//</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">时间处理（返回的是时间类型）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>jsonData["doDate"]=Ext.util.Format.date(tdote,'Y-m-d');//</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333399"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>重新定义值（也就是把格式化之后的值重新赋值给原来的值）</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>linux</t>
     </r>
     <r>
@@ -1714,6 +1488,254 @@
         <family val="2"/>
       </rPr>
       <t>woshinige123</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">前台格式化时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>var tdote=new Date(jsonData["doDate"]);//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">时间处理（返回的是时间类型）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jsonData["doDate"]=Ext.util.Format.date(tdote,'Y-m-d');//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新定义值（也就是把格式化之后的值重新赋值给原来的值）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的重要应用：引用（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reference</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）闭包（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>closure</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）作用域（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）上下文（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>extjs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ext.get().dom;.dom</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是把他转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dom</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象这样就可以用操作</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dom</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333399"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式操作他了</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1828,7 +1850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1851,6 +1873,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2160,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="33" customHeight="1"/>
@@ -2171,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2179,23 +2204,23 @@
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2209,9 +2234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
@@ -2223,20 +2246,20 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
+      <c r="A2" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.95" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2261,31 +2284,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2336,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2327,21 +2350,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="33.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.95" customHeight="1">
+    <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21.95" customHeight="1">
+    <row r="2" spans="1:2" ht="33" customHeight="1">
+      <c r="A2" s="1" t="str">
+        <f>A1</f>
+        <v>javascript中数字相加会默认是字符串的相加:比如1+1=11会出现这种结果;如果要当成数字要使用parseInt来转型</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="B3" s="6"/>
     </row>
   </sheetData>

--- a/liting/每天进步一点点.xlsx
+++ b/liting/每天进步一点点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日常记录" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,10 @@
     <sheet name="linux" sheetId="3" r:id="rId3"/>
     <sheet name="DIV-CSS" sheetId="4" r:id="rId4"/>
     <sheet name="javascript" sheetId="5" r:id="rId5"/>
+    <sheet name="mysql" sheetId="6" r:id="rId6"/>
+    <sheet name="MSSQL" sheetId="8" r:id="rId7"/>
+    <sheet name="oracle" sheetId="9" r:id="rId8"/>
+    <sheet name="windows" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
@@ -2234,7 +2238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
@@ -2350,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
@@ -2378,4 +2384,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C7820A8F-1603-4299-AD83-D727AB7851CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C7820A8F-1603-4299-AD83-D727AB7851CE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="1" sqref="A1:XFD1048576 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>